--- a/rules/d10Chart.xlsx
+++ b/rules/d10Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -171,6 +171,9 @@
     <t xml:space="preserve">Knowledge</t>
   </si>
   <si>
+    <t xml:space="preserve">Weapon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Power Points</t>
   </si>
   <si>
@@ -291,7 +294,7 @@
     <t xml:space="preserve">Huge</t>
   </si>
   <si>
-    <t xml:space="preserve">Stressing Heavy, Strength Based Skill, 2xDB</t>
+    <t xml:space="preserve">Stressing Heavy, Strength Based Skill, DB</t>
   </si>
   <si>
     <t xml:space="preserve">Fatigued next turn and +1 stress</t>
@@ -422,7 +425,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -450,11 +453,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -587,7 +585,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -728,11 +726,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,10 +771,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,17 +853,18 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +983,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1000,6 +991,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="2.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,7 +1543,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1562,7 +1554,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,7 +1763,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1781,7 +1774,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.98"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3660,7 +3653,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -3671,7 +3664,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.98"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5550,7 +5543,7 @@
   </sheetPr>
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -7884,7 +7877,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -7892,7 +7885,7 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="3.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="0" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="13" style="0" width="6.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
@@ -9773,7 +9766,7 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -9781,60 +9774,66 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="16" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="16" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="16" width="40.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="true" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="16" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="N1" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="18" t="s">
         <v>24</v>
@@ -9842,7 +9841,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="20" t="n">
         <f aca="false">2*C2+ROUND(2.5*E2,0)+ROUND(0.75*E3,0)+3*F2+2*F3+((G2-2)+(G3-2))+D2+D3</f>
@@ -9892,13 +9891,13 @@
         <v>200</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9951,7 +9950,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="28" t="n">
         <f aca="false">2*C4+ROUND(2.5*E4,0)+ROUND(0.75*E5,0)+3*F4+2*F5+((G4-2)+(G5-2))+D4+D5</f>
@@ -10001,13 +10000,13 @@
         <v>67</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10060,7 +10059,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="20" t="n">
         <f aca="false">2*C6+ROUND(2.5*E6,0)+ROUND(0.75*E7,0)+3*F6+2*F7+((G6-2)+(G7-2))+D6+D7</f>
@@ -10110,13 +10109,13 @@
         <v>50</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,7 +10168,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="28" t="n">
         <f aca="false">2*C8+ROUND(2.5*E8,0)+ROUND(0.75*E9,0)+3*F8+2*F9+((G8-2)+(G9-2))+D8+D9</f>
@@ -10219,13 +10218,13 @@
         <v>40</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10278,7 +10277,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="20" t="n">
         <f aca="false">2*C10+ROUND(2.5*E10,0)+ROUND(0.75*E11,0)+3*F10+2*F11+((G10-2)+(G11-2))+D10+D11</f>
@@ -10328,13 +10327,13 @@
         <v>40</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10387,7 +10386,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="28" t="n">
         <f aca="false">2*C12+ROUND(2.5*E12,0)+ROUND(0.75*E13,0)+3*F12+2*F13+((G12-2)+(G13-2))+D12+D13</f>
@@ -10437,13 +10436,13 @@
         <v>40</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10496,7 +10495,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="28" t="n">
         <f aca="false">2*C14+ROUND(2.5*E14,0)+ROUND(0.75*E15,0)+3*F14+2*F15+((G14-2)+(G15-2))+D14+D15</f>
@@ -10599,7 +10598,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="20" t="n">
         <f aca="false">2*C16+ROUND(2.5*E16,0)+ROUND(0.75*E17,0)+3*F16+2*F17+((G16-2)+(G17-2))+D16+D17</f>
@@ -10649,13 +10648,13 @@
         <v>35</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10708,7 +10707,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="20" t="n">
         <f aca="false">2*C18+ROUND(2.5*E18,0)+ROUND(0.75*E19,0)+3*F18+2*F19+((G18-2)+(G19-2))+D18+D19</f>
@@ -10811,7 +10810,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="28" t="n">
         <f aca="false">2*C20+ROUND(2.5*E20,0)+ROUND(0.75*E21,0)+3*F20+2*F21+((G20-2)+(G21-2))+D20+D21</f>
@@ -10861,13 +10860,13 @@
         <v>34</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10920,7 +10919,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="28" t="n">
         <f aca="false">2*C22+ROUND(2.5*E22,0)+ROUND(0.75*E23,0)+3*F22+2*F23+((G22-2)+(G23-2))+D22+D23</f>
@@ -11023,7 +11022,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="20" t="n">
         <f aca="false">2*C24+ROUND(2.5*E24,0)+ROUND(0.75*E25,0)+3*F24+2*F25+((G24-2)+(G25-2))+D24+D25</f>
@@ -11073,13 +11072,13 @@
         <v>34</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11132,7 +11131,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="28" t="n">
         <f aca="false">2*C26+ROUND(2.5*E26,0)+ROUND(0.75*E27,0)+3*F26+2*F27+((G26-2)+(G27-2))+D26+D27</f>
@@ -11182,13 +11181,13 @@
         <v>25</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11241,7 +11240,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="20" t="n">
         <f aca="false">2*C28+ROUND(2.5*E28,0)+ROUND(0.75*E29,0)+3*F28+2*F29+((G28-2)+(G29-2))+D28+D29</f>
@@ -11291,13 +11290,13 @@
         <v>29</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="P28" s="36" t="s">
         <v>82</v>
       </c>
+      <c r="P28" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="Q28" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11350,7 +11349,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="28" t="n">
         <f aca="false">2*C30+ROUND(2.5*E30,0)+ROUND(0.75*E31,0)+3*F30+2*F31+((G30-2)+(G31-2))+D30+D31</f>
@@ -11400,13 +11399,13 @@
         <v>50</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q30" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11459,7 +11458,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="28" t="n">
         <f aca="false">2*C32+ROUND(2.5*E32,0)+ROUND(0.75*E33,0)+3*F32+2*F33+((G32-2)+(G33-2))+D32+D33</f>
@@ -11562,7 +11561,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="20" t="n">
         <f aca="false">2*C34+ROUND(2.5*E34,0)+ROUND(0.75*E35,0)+3*F34+2*F35+((G34-2)+(G35-2))+D34+D35</f>
@@ -11612,13 +11611,13 @@
         <v>40</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11671,7 +11670,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="20" t="n">
         <f aca="false">2*C36+ROUND(2.5*E36,0)+ROUND(0.75*E37,0)+3*F36+2*F37+((G36-2)+(G37-2))+D36+D37</f>
@@ -11774,7 +11773,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B38" s="28" t="n">
         <f aca="false">2*C38+ROUND(2.5*E38,0)+ROUND(0.75*E39,0)+3*F38+2*F39+((G38-2)+(G39-2))+D38+D39</f>
@@ -11824,13 +11823,13 @@
         <v>67</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P38" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11883,7 +11882,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B40" s="28" t="n">
         <f aca="false">2*C40+ROUND(2.5*E40,0)+ROUND(0.75*E41,0)+3*F40+2*F41+((G40-2)+(G41-2))+D40+D41</f>
@@ -11987,7 +11986,7 @@
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="20" t="n">
         <f aca="false">2*C44+ROUND(2.5*E44,0)+F44+((G44-2)+D44)</f>
@@ -11996,59 +11995,59 @@
       <c r="C44" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="37" t="n">
+      <c r="D44" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="H44" s="37" t="n">
+      <c r="H44" s="36" t="n">
         <f aca="false">ROUNDUP(F44*(G44/2+0.5),0)</f>
         <v>3</v>
       </c>
-      <c r="I44" s="37" t="n">
+      <c r="I44" s="36" t="n">
         <f aca="false">F44*G44</f>
         <v>4</v>
       </c>
-      <c r="J44" s="37" t="n">
+      <c r="J44" s="36" t="n">
         <f aca="false">ROUNDUP(50/H44,0)</f>
         <v>17</v>
       </c>
-      <c r="K44" s="37" t="n">
+      <c r="K44" s="36" t="n">
         <f aca="false">IF(E44=0, ROUNDUP(50/(H44/2),0), ROUNDUP((50-ROUNDUP(15/E44,0)*H44/2)/H44,0)+ROUNDUP(15/E44,0))</f>
         <v>34</v>
       </c>
-      <c r="L44" s="37" t="n">
+      <c r="L44" s="36" t="n">
         <f aca="false">ROUNDUP(100/H44,0)</f>
         <v>34</v>
       </c>
-      <c r="M44" s="37" t="n">
+      <c r="M44" s="36" t="n">
         <f aca="false">IF($E44=0, ROUNDUP(100/($H44/2),0), ROUNDUP((100-ROUNDUP(15/$E44,0)*$H44/2)/$H44,0)+ROUNDUP(15/$E44,0))</f>
         <v>67</v>
       </c>
-      <c r="N44" s="39" t="n">
+      <c r="N44" s="38" t="n">
         <f aca="false">IF($E44=0, ROUNDUP(100/($H44/2),0), ROUNDUP((100-ROUNDUP(30/$E44,0)*$H44/2)/$H44,0)+ROUNDUP(30/$E44,0))</f>
         <v>67</v>
       </c>
-      <c r="O44" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P44" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q44" s="40" t="s">
-        <v>64</v>
+      <c r="O44" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q44" s="39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="28" t="n">
         <f aca="false">2*C45+ROUND(2.5*E45,0)+F45+((G45-2)+D45)</f>
@@ -12057,59 +12056,59 @@
       <c r="C45" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="D45" s="41" t="n">
+      <c r="D45" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="E45" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="42" t="n">
+      <c r="E45" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="41" t="n">
         <f aca="false">ROUNDUP(F45*(G45/2+0.5),0)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="42" t="n">
+      <c r="I45" s="41" t="n">
         <f aca="false">F45*G45</f>
         <v>0</v>
       </c>
-      <c r="J45" s="42" t="e">
+      <c r="J45" s="41" t="e">
         <f aca="false">ROUNDUP(50/H45,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="42" t="e">
+      <c r="K45" s="41" t="e">
         <f aca="false">IF(E45=0, ROUNDUP(50/(H45/2),0), ROUNDUP((50-ROUNDUP(15/E45,0)*H45/2)/H45,0)+ROUNDUP(15/E45,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="42" t="e">
+      <c r="L45" s="41" t="e">
         <f aca="false">ROUNDUP(100/H45,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M45" s="42" t="e">
+      <c r="M45" s="41" t="e">
         <f aca="false">IF($E45=0, ROUNDUP(100/($H45/2),0), ROUNDUP((100-ROUNDUP(15/$E45,0)*$H45/2)/$H45,0)+ROUNDUP(15/$E45,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N45" s="42" t="e">
+      <c r="N45" s="41" t="e">
         <f aca="false">IF($E45=0, ROUNDUP(100/($H45/2),0), ROUNDUP((100-ROUNDUP(30/$E45,0)*$H45/2)/$H45,0)+ROUNDUP(30/$E45,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O45" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q45" s="43" t="s">
-        <v>64</v>
+      <c r="O45" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q45" s="42" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="20" t="n">
         <f aca="false">2*C46+ROUND(2.5*E46,0)+F46+((G46-2)+D46)</f>
@@ -12124,48 +12123,48 @@
       <c r="E46" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="44" t="n">
+      <c r="F46" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="43" t="n">
         <f aca="false">ROUNDUP(F46*(G46/2+0.5),0)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="44" t="n">
+      <c r="I46" s="43" t="n">
         <f aca="false">F46*G46</f>
         <v>0</v>
       </c>
-      <c r="J46" s="44" t="e">
+      <c r="J46" s="43" t="e">
         <f aca="false">ROUNDUP(50/H46,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="44" t="e">
+      <c r="K46" s="43" t="e">
         <f aca="false">IF(E46=0, ROUNDUP(50/(H46/2),0), ROUNDUP((50-ROUNDUP(15/E46,0)*H46/2)/H46,0)+ROUNDUP(15/E46,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="44" t="e">
+      <c r="L46" s="43" t="e">
         <f aca="false">ROUNDUP(100/H46,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="44" t="e">
+      <c r="M46" s="43" t="e">
         <f aca="false">IF($E46=0, ROUNDUP(100/($H46/2),0), ROUNDUP((100-ROUNDUP(15/$E46,0)*$H46/2)/$H46,0)+ROUNDUP(15/$E46,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N46" s="44" t="e">
+      <c r="N46" s="43" t="e">
         <f aca="false">IF($E46=0, ROUNDUP(100/($H46/2),0), ROUNDUP((100-ROUNDUP(30/$E46,0)*$H46/2)/$H46,0)+ROUNDUP(30/$E46,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -12290,14 +12289,14 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
@@ -12307,277 +12306,277 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>106</v>
       </c>
+      <c r="G1" s="44" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="46" t="n">
+      <c r="A2" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>108</v>
+      <c r="E2" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="46" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="47" t="n">
+      <c r="F3" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="46" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="47" t="s">
+      <c r="C6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="46" t="n">
+      <c r="G6" s="45"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="46" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="45" t="n">
         <v>20</v>
       </c>
-      <c r="C4" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="C8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
+      <c r="G8" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="47" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="47" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="46" t="n">
-        <v>15</v>
-      </c>
-      <c r="C6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="46" t="n">
-        <v>14</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="47" t="n">
-        <v>30</v>
-      </c>
-      <c r="C7" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="47" t="n">
-        <v>14</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="46" t="n">
-        <v>20</v>
-      </c>
-      <c r="C8" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="46" t="n">
-        <v>14</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="47" t="n">
-        <v>30</v>
-      </c>
-      <c r="C9" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="47" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="45" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="46" t="n">
-        <v>40</v>
-      </c>
-      <c r="C10" s="46" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="46" t="n">
+      <c r="F10" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="46" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="47" t="n">
-        <v>50</v>
-      </c>
-      <c r="C11" s="47" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="47" t="n">
+      <c r="E11" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="45" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="46" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" s="46" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>112</v>
+      <c r="E12" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -12598,7 +12597,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/rules/d10Chart.xlsx
+++ b/rules/d10Chart.xlsx
@@ -294,10 +294,10 @@
     <t xml:space="preserve">Huge</t>
   </si>
   <si>
-    <t xml:space="preserve">Stressing Heavy, Strength Based Skill, DB</t>
+    <t xml:space="preserve">Stressing Heavy, Strength Based Skill, 2xDB</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatigued next turn and +1 stress</t>
+    <t xml:space="preserve">+1 stress</t>
   </si>
   <si>
     <t xml:space="preserve">Maul</t>
@@ -425,12 +425,11 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -449,13 +448,89 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +539,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFBCE4E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -481,12 +598,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -560,7 +692,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,6 +716,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -606,35 +789,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,7 +825,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,145 +841,162 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -808,7 +1008,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFBCE4E5"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -818,13 +1018,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -853,7 +1053,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -983,7 +1183,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1543,7 +1743,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1763,7 +1963,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3653,7 +3853,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -5543,7 +5743,7 @@
   </sheetPr>
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -7877,7 +8077,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -7885,7 +8085,7 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="3.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="13" style="0" width="6.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
@@ -9766,8 +9966,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9776,8 +9976,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="16" width="11.71"/>
@@ -11244,7 +11443,7 @@
       </c>
       <c r="B28" s="20" t="n">
         <f aca="false">2*C28+ROUND(2.5*E28,0)+ROUND(0.75*E29,0)+3*F28+2*F29+((G28-2)+(G29-2))+D28+D29</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="20" t="n">
         <v>1</v>
@@ -11304,7 +11503,7 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="25" t="n">
         <v>7</v>
@@ -12289,14 +12488,14 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
@@ -12597,7 +12796,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
